--- a/logs/GT_Log_2025-11-22.xlsx
+++ b/logs/GT_Log_2025-11-22.xlsx
@@ -17362,10 +17362,14 @@
         </is>
       </c>
       <c r="F2" s="129" t="n"/>
-      <c r="G2" s="129" t="n"/>
+      <c r="G2" s="129" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
       <c r="H2" s="129" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Auto</t>
         </is>
       </c>
       <c r="I2" s="129" t="inlineStr">
@@ -17396,10 +17400,14 @@
         </is>
       </c>
       <c r="F3" s="187" t="n"/>
-      <c r="G3" s="187" t="n"/>
+      <c r="G3" s="187" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
       <c r="H3" s="187" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Auto</t>
         </is>
       </c>
       <c r="I3" s="187" t="inlineStr">
@@ -17430,7 +17438,9 @@
         </is>
       </c>
       <c r="F4" s="168" t="n"/>
-      <c r="G4" s="169" t="n"/>
+      <c r="G4" s="169" t="n">
+        <v>12</v>
+      </c>
       <c r="H4" s="169" t="n">
         <v>12</v>
       </c>
@@ -17460,9 +17470,11 @@
         </is>
       </c>
       <c r="F5" s="263" t="n"/>
-      <c r="G5" s="260" t="n"/>
+      <c r="G5" s="260" t="n">
+        <v>34</v>
+      </c>
       <c r="H5" s="260" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I5" s="260" t="n">
         <v>12</v>
@@ -17490,10 +17502,14 @@
         </is>
       </c>
       <c r="F6" s="118" t="n"/>
-      <c r="G6" s="118" t="n"/>
+      <c r="G6" s="118" t="inlineStr">
+        <is>
+          <t>Not ok</t>
+        </is>
+      </c>
       <c r="H6" s="118" t="inlineStr">
         <is>
-          <t>Not ok</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="I6" s="118" t="inlineStr">
@@ -17524,10 +17540,14 @@
         </is>
       </c>
       <c r="F7" s="207" t="n"/>
-      <c r="G7" s="207" t="n"/>
+      <c r="G7" s="207" t="inlineStr">
+        <is>
+          <t>Not ok</t>
+        </is>
+      </c>
       <c r="H7" s="207" t="inlineStr">
         <is>
-          <t>Not ok</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="I7" s="207" t="inlineStr">
@@ -17562,10 +17582,14 @@
         </is>
       </c>
       <c r="F8" s="129" t="n"/>
-      <c r="G8" s="129" t="n"/>
+      <c r="G8" s="129" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
       <c r="H8" s="129" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="I8" s="129" t="inlineStr">
@@ -17596,7 +17620,11 @@
         </is>
       </c>
       <c r="F9" s="187" t="n"/>
-      <c r="G9" s="187" t="n"/>
+      <c r="G9" s="187" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
       <c r="H9" s="187" t="inlineStr">
         <is>
           <t>Manual</t>
@@ -17630,7 +17658,9 @@
         </is>
       </c>
       <c r="F10" s="168" t="n"/>
-      <c r="G10" s="169" t="n"/>
+      <c r="G10" s="169" t="n">
+        <v>27</v>
+      </c>
       <c r="H10" s="169" t="n">
         <v>23</v>
       </c>
@@ -17682,7 +17712,11 @@
         </is>
       </c>
       <c r="F12" s="118" t="n"/>
-      <c r="G12" s="118" t="n"/>
+      <c r="G12" s="118" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="H12" s="118" t="inlineStr">
         <is>
           <t>Not ok</t>
@@ -17716,10 +17750,14 @@
         </is>
       </c>
       <c r="F13" s="207" t="n"/>
-      <c r="G13" s="207" t="n"/>
+      <c r="G13" s="207" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
       <c r="H13" s="207" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>Not ok</t>
         </is>
       </c>
       <c r="I13" s="207" t="inlineStr">
